--- a/mapping/ChemCatChem_RXNO.xlsx
+++ b/mapping/ChemCatChem_RXNO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="134">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -322,10 +322,100 @@
     <t>{'label': 'hydroboration'}</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['ChEBI defines this too specifically (SJC)']</t>
+    <t>['A compound formally derived from ammonia by replacing one, two or three hydrogen atoms by hydrocarbyl groups.', 'A compound formally derived from ammonia by replacing one, two or three hydrogen atoms by hydrocarbyl groups.']</t>
+  </si>
+  <si>
+    <t>['A joining reaction where a carbon-carbon bond is formed between unlike moieties.']</t>
+  </si>
+  <si>
+    <t>['Acyclic branched or unbranched hydrocarbons having a carbon-carbon triple bond and the general formula CnH2n-2, RC#CR.', 'Acyclic branched or unbranched hydrocarbons having a carbon-carbon triple bond and the general formula CnH2n-2, RC#CR.']</t>
+  </si>
+  <si>
+    <t>['A compound in which a carbonyl group is bonded to two carbon atoms: R2C=O (neither R may be H).', 'A compound in which a carbonyl group is bonded to two carbon atoms: R2C=O (neither R may be H).']</t>
+  </si>
+  <si>
+    <t>['A molecular process that results in the formation of an epoxide.', 'A cyclisation that results in the formation of an epoxide.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an amino group.', 'Formation of a covalent bond between a substrate and an amino group.']</t>
+  </si>
+  <si>
+    <t>['A molecular process where two or more unsaturated molecules or parts of the same molecule combine to form a cyclic adduct in which there is a net reduction of bond multiplicity.', 'A molecular process where two or more unsaturated molecules or parts of the same molecule combine to form a cyclic adduct in which there is a net reduction of bond multiplicity.']</t>
+  </si>
+  <si>
+    <t>['The reaction of hydrogen and carbon monoxide with an alkene, to give an aldehyde, catalysed by a rhodium or cobalt catalyst. The process is equivalent to the formal addition of the H-C bond of formaldehyde across the double bond of an alkene.']</t>
+  </si>
+  <si>
+    <t>['The addition of a hydrosilane across the double bond of an alkene or alkyne to give a more substituted silane. Addition to an aldehyde or ketone produces a silyl ether.']</t>
+  </si>
+  <si>
+    <t>['Formation of a ring in a molecule from a chain by formation of a new bond.', 'Formation of a ring in a molecule from a chain by formation of a new bond.']</t>
+  </si>
+  <si>
+    <t>['Any monocyclic or polycyclic aromatic hydrocarbon.']</t>
+  </si>
+  <si>
+    <t>['An amide is a derivative of an oxoacid RkE(=O)l(OH)m (l =/= 0) in which an acidic hydroxy group has been replaced by an amino or substituted amino group.', 'An amide is a derivative of an oxoacid RkE(=O)l(OH)m (l =/= 0) in which an acidic hydroxy group has been replaced by an amino or substituted amino group.']</t>
+  </si>
+  <si>
+    <t>['A molecular entity possessing an unpaired electron.', 'A molecular entity possessing an unpaired electron.']</t>
+  </si>
+  <si>
+    <t>['An acyclic branched or unbranched hydrocarbon having the general formula CnH2n+2, and therefore consisting entirely of hydrogen atoms and saturated carbon atoms.', 'An acyclic branched or unbranched hydrocarbon having the general formula CnH2n+2, and therefore consisting entirely of hydrogen atoms and saturated carbon atoms.']</t>
+  </si>
+  <si>
+    <t>['A carbon oxoacid acid carrying at least one -C(=O)OH group and having the structure RC(=O)OH, where R is any any monovalent functional group. Carboxylic acids are the most common type of organic acid.', 'A carbon oxoacid acid carrying at least one -C(=O)OH group and having the structure RC(=O)OH, where R is any any monovalent functional group. Carboxylic acids are the most common type of organic acid.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an aryl group.', 'Formation of a covalent bond between a substrate and an aryl group.']</t>
+  </si>
+  <si>
+    <t>['Catalysis of a reaction where the catalyst either donates a hydron or accepts an electron pair.', 'Catalysis of a reaction where the catalyst either donates a hydron or accepts an electron pair.']</t>
+  </si>
+  <si>
+    <t>['A compound having the structure RC#N; thus a C-substituted derivative of hydrocyanic acid, HC#N. In systematic nomenclature, the suffix nitrile denotes the triply bound #N atom, not the carbon atom attached to it.']</t>
+  </si>
+  <si>
+    <t>['A conjugate addition reaction where a carbon nucleophile adds to the beta-carbon of an alpha,beta-unsaturated system (or an activated carbon-carbon bond).']</t>
+  </si>
+  <si>
+    <t>['Acyclic and cyclic hydrocarbons having one or more carbon-carbon double bonds, apart from the formal ones in aromatic compounds. The class olefins subsumes alkenes and cycloalkenes and the corresponding polyenes.']</t>
+  </si>
+  <si>
+    <t>['Any cyclic ether in which the oxygen atom forms part of a 3-membered ring.']</t>
+  </si>
+  <si>
+    <t>['The addition of the N-H bond of an amine across a double bond of an alkene or alkyne, to give a more substituted amine.']</t>
+  </si>
+  <si>
+    <t>['Any cyclic carboxylic ester containing a 1-oxacycloalkan-2-one structure, or an analogue having unsaturation or heteroatoms replacing one or more carbon atoms of the ring.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an allyl group.', 'Formation of a covalent bond between a substrate and an allyl group.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and a methyl group.']</t>
+  </si>
+  <si>
+    <t>['Any nitrogen molecular entity containing the group -N3.']</t>
+  </si>
+  <si>
+    <t>['Breaking of a covalent bond between a molecule and a carboxy group.']</t>
+  </si>
+  <si>
+    <t>['Formation of a covalent bond between a substrate and an acyl group.', 'Formation of a covalent bond between a substrate and an acyl group.']</t>
+  </si>
+  <si>
+    <t>['A joining reaction where a nucleophile adds to the beta-carbon of an alpha,beta-unsaturated system (or an activated carbon-carbon bond).']</t>
+  </si>
+  <si>
+    <t>['Any heteroatomic molecular entity that is a chemical compound of halogen with other chemical elements.', 'Any heteroatomic molecular entity that is a chemical compound of halogen with other chemical elements.']</t>
+  </si>
+  <si>
+    <t>['A carbon-carbon coupling reaction where an organohalide or triflate couples to a terminal olefin to produce an internal olefin, catalysed by palladium. It is stereospecific.']</t>
+  </si>
+  <si>
+    <t>['The addition of a boron hydride across a double bond of an alkene or alkyne. The boron usually adds to the less substituted carbon.']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +846,7 @@
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -776,7 +866,7 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -796,7 +886,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -816,7 +906,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -836,7 +926,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -856,7 +946,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -876,7 +966,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -896,7 +986,7 @@
         <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -916,7 +1006,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -936,7 +1026,7 @@
         <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -956,7 +1046,7 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -976,7 +1066,7 @@
         <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -996,7 +1086,7 @@
         <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1016,7 +1106,7 @@
         <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1036,7 +1126,7 @@
         <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1056,7 +1146,7 @@
         <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1076,7 +1166,7 @@
         <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1096,7 +1186,7 @@
         <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1116,7 +1206,7 @@
         <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1136,7 +1226,7 @@
         <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1156,7 +1246,7 @@
         <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1176,7 +1266,7 @@
         <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1196,7 +1286,7 @@
         <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1216,7 +1306,7 @@
         <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1236,7 +1326,7 @@
         <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1256,7 +1346,7 @@
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1276,7 +1366,7 @@
         <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1296,7 +1386,7 @@
         <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1316,7 +1406,7 @@
         <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1336,7 +1426,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1356,7 +1446,7 @@
         <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
